--- a/sheets/bajaj-finance-select-financial-and-business-metrics-v1.xlsx
+++ b/sheets/bajaj-finance-select-financial-and-business-metrics-v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Data" sheetId="1" state="visible" r:id="rId4"/>
@@ -12,7 +12,7 @@
     <sheet name="Omnipresence update" sheetId="4" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Yearly Data'!$B$1:$H$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Yearly Data'!$B$1:$H$112</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <r>
       <t xml:space="preserve">Quarterly Financial Data for BFL Consolidated</t>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rural B2B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortgages YoY</t>
   </si>
   <si>
     <t xml:space="preserve">#Numbers for FY18 have been restated to give impact of Ind AS transition and taken from comparative period reported along with FY19.</t>
@@ -777,7 +780,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -850,6 +853,10 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,13 +1009,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
+      <xdr:colOff>3173</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
+      <xdr:colOff>3173</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -9186,6 +9193,10 @@
         <f>'Quarterly Data'!Y58</f>
         <v>23448</v>
       </c>
+      <c r="J92" s="24">
+        <f>I92/$I$104</f>
+        <v>0.070922371943196769</v>
+      </c>
     </row>
     <row r="93">
       <c r="B93" s="14" t="s">
@@ -9218,6 +9229,10 @@
         <f>'Quarterly Data'!Y59</f>
         <v>19742</v>
       </c>
+      <c r="J93" s="24">
+        <f>I93/$I$104</f>
+        <v>0.059712959182130272</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="14" t="s">
@@ -9250,6 +9265,10 @@
         <f>'Quarterly Data'!Y60</f>
         <v>66093</v>
       </c>
+      <c r="J94" s="24">
+        <f>I94/$I$104</f>
+        <v>0.1999092600154258</v>
+      </c>
     </row>
     <row r="95">
       <c r="B95" s="14" t="s">
@@ -9282,6 +9301,10 @@
         <f>'Quarterly Data'!Y61</f>
         <v>22006</v>
       </c>
+      <c r="J95" s="24">
+        <f>I95/$I$104</f>
+        <v>0.066560803351330092</v>
+      </c>
     </row>
     <row r="96">
       <c r="B96" s="14" t="s">
@@ -9313,6 +9336,10 @@
       <c r="I96" s="15">
         <f>'Quarterly Data'!Y62</f>
         <v>22038</v>
+      </c>
+      <c r="J96" s="24">
+        <f>I96/$I$104</f>
+        <v>0.06665759266820924</v>
       </c>
     </row>
     <row r="97">
@@ -9341,6 +9368,10 @@
         <f>'Quarterly Data'!Y63</f>
         <v>0</v>
       </c>
+      <c r="J97" s="24">
+        <f>I97/$I$104</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="B98" s="14" t="s">
@@ -9373,6 +9404,10 @@
         <f>'Quarterly Data'!Y64</f>
         <v>103316</v>
       </c>
+      <c r="J98" s="24">
+        <f>I98/$I$104</f>
+        <v>0.31249640820894392</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" s="14" t="s">
@@ -9405,6 +9440,10 @@
         <f>'Quarterly Data'!Y65</f>
         <v>6209</v>
       </c>
+      <c r="J99" s="24">
+        <f>I99/$I$104</f>
+        <v>0.018780152140707468</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" s="14" t="s">
@@ -9436,6 +9475,10 @@
       <c r="I100" s="15">
         <f>'Quarterly Data'!Y66</f>
         <v>17607</v>
+      </c>
+      <c r="J100" s="24">
+        <f>I100/$I$104</f>
+        <v>0.053255296946599522</v>
       </c>
     </row>
     <row r="101">
@@ -9467,6 +9510,10 @@
         <f>'Quarterly Data'!Y67</f>
         <v>4599</v>
       </c>
+      <c r="J101" s="24">
+        <f>I101/$I$104</f>
+        <v>0.013910439635225261</v>
+      </c>
     </row>
     <row r="102">
       <c r="B102" s="14" t="s">
@@ -9498,6 +9545,10 @@
       <c r="I102" s="15">
         <f>'Quarterly Data'!Y68</f>
         <v>38470</v>
+      </c>
+      <c r="J102" s="24">
+        <f>I102/$I$104</f>
+        <v>0.11635890688565249</v>
       </c>
     </row>
     <row r="103">
@@ -9529,6 +9580,10 @@
         <f>'Quarterly Data'!Y69</f>
         <v>7087</v>
       </c>
+      <c r="J103" s="24">
+        <f>I103/$I$104</f>
+        <v>0.021435809022579133</v>
+      </c>
     </row>
     <row r="104">
       <c r="B104" s="10" t="s">
@@ -9564,16 +9619,90 @@
       </c>
     </row>
     <row r="105">
-      <c r="C105" s="16"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
     </row>
     <row r="106">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="50">
+        <f>D98/C98-1</f>
+        <v>0.43260161570020728</v>
+      </c>
+      <c r="E106" s="50">
+        <f>E98/D98-1</f>
+        <v>0.36299489238581684</v>
+      </c>
+      <c r="F106" s="50">
+        <f>F98/E98-1</f>
+        <v>0.074188796950136471</v>
+      </c>
+      <c r="G106" s="50">
+        <f>G98/F98-1</f>
+        <v>0.24419753584319737</v>
+      </c>
+      <c r="H106" s="50">
+        <f>H98/G98-1</f>
+        <v>0.25950957034732025</v>
+      </c>
+      <c r="I106" s="50">
+        <f>I98/H98-1</f>
+        <v>0.32945581820287462</v>
+      </c>
+      <c r="J106" s="51">
+        <f>AVERAGE(D106:I106)</f>
+        <v>0.28382470490492545</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="48"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="48"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="48"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107">
-      <c r="B107" s="1" t="s">
-        <v>131</v>
+    <row r="112">
+      <c r="B112" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9600,20 +9729,20 @@
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="31.8515625"/>
-    <col customWidth="1" min="2" max="2" style="48" width="8.00390625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="49" width="12.1796875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="49" width="12.81640625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="49" width="12.453125"/>
-    <col bestFit="1" customWidth="1" min="6" max="7" style="49" width="12.54296875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="49" width="11.1796875"/>
-    <col bestFit="1" customWidth="1" min="9" max="12" style="49" width="12.1796875"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" style="49" width="12.54296875"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" style="49" width="12.26953125"/>
-    <col customWidth="1" min="15" max="15" style="49" width="10.26953125"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" style="49" width="12.1796875"/>
-    <col bestFit="1" customWidth="1" min="17" max="17" style="49" width="12.54296875"/>
-    <col customWidth="1" min="18" max="18" style="49" width="10.453125"/>
-    <col bestFit="1" customWidth="1" min="19" max="22" style="49" width="12.54296875"/>
+    <col customWidth="1" min="2" max="2" style="52" width="8.00390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="53" width="12.1796875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="53" width="12.81640625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="53" width="12.453125"/>
+    <col bestFit="1" customWidth="1" min="6" max="7" style="53" width="12.54296875"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="53" width="11.1796875"/>
+    <col bestFit="1" customWidth="1" min="9" max="12" style="53" width="12.1796875"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" style="53" width="12.54296875"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" style="53" width="12.26953125"/>
+    <col customWidth="1" min="15" max="15" style="53" width="10.26953125"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" style="53" width="12.1796875"/>
+    <col bestFit="1" customWidth="1" min="17" max="17" style="53" width="12.54296875"/>
+    <col customWidth="1" min="18" max="18" style="53" width="10.453125"/>
+    <col bestFit="1" customWidth="1" min="19" max="22" style="53" width="12.54296875"/>
     <col bestFit="1" customWidth="1" min="23" max="26" style="1" width="11.7265625"/>
     <col bestFit="1" customWidth="1" min="27" max="27" style="1" width="9.6328125"/>
     <col min="28" max="16384" style="1" width="8.7265625"/>
@@ -9621,7 +9750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -9629,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -9706,91 +9835,91 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="51">
+      <c r="B4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="55">
         <f t="shared" ref="C4:U7" si="30">SUM(C5:C6)</f>
         <v>1486</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="55">
         <f t="shared" si="30"/>
         <v>1613</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="55">
         <f t="shared" si="30"/>
         <v>1736</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="55">
         <f t="shared" si="30"/>
         <v>1830</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="55">
         <f t="shared" si="30"/>
         <v>1895</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="55">
         <f t="shared" si="30"/>
         <v>1997</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="55">
         <f t="shared" si="30"/>
         <v>2179</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="55">
         <f t="shared" si="30"/>
         <v>2392</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="55">
         <f t="shared" si="30"/>
         <v>2408</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="55">
         <f t="shared" si="30"/>
         <v>2641</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="55">
         <f t="shared" si="30"/>
         <v>2814</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="55">
         <f t="shared" si="30"/>
         <v>2988</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="55">
         <f t="shared" si="30"/>
         <v>3113</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="55">
         <f t="shared" si="30"/>
         <v>3329</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="55">
         <f t="shared" si="30"/>
         <v>3423</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="55">
         <f t="shared" si="30"/>
         <v>3504</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="55">
         <f t="shared" si="30"/>
         <v>3586</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="55">
         <f t="shared" si="30"/>
         <v>3685</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="56">
         <f t="shared" si="30"/>
         <v>3714</v>
       </c>
-      <c r="V4" s="51">
+      <c r="V4" s="55">
         <v>3733</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="55">
         <v>3828</v>
       </c>
       <c r="X4" s="15">
@@ -9804,257 +9933,257 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="5" s="53" customFormat="1">
-      <c r="A5" s="54" t="s">
+    <row r="5" s="57" customFormat="1">
+      <c r="A5" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="C5" s="55">
         <v>793</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="55">
         <v>862</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="55">
         <v>867</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="55">
         <v>927</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="55">
         <v>944</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="55">
         <v>956</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="55">
         <v>986</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="55">
         <v>1035</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="55">
         <v>1049</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="55">
         <v>1134</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="55">
         <v>1210</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="55">
         <v>1298</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="55">
         <v>1368</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="55">
         <v>1368</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="55">
         <v>1368</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="55">
         <v>1368</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="55">
         <v>1368</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="55">
         <v>1372</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="55">
         <v>1392</v>
       </c>
-      <c r="V5" s="55">
+      <c r="V5" s="59">
         <v>1392</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5" s="59">
         <v>1422</v>
       </c>
-      <c r="X5" s="56">
+      <c r="X5" s="60">
         <v>1469</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="60">
         <v>1538</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="Z5" s="60">
         <v>1569</v>
       </c>
     </row>
-    <row r="6" s="53" customFormat="1">
-      <c r="A6" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="51">
+    <row r="6" s="57" customFormat="1">
+      <c r="A6" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="55">
         <v>693</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="55">
         <v>751</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="55">
         <v>869</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="55">
         <v>903</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="55">
         <v>951</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="55">
         <v>1041</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="55">
         <v>1193</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="55">
         <v>1357</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="55">
         <v>1359</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="55">
         <v>1507</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="55">
         <v>1604</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="55">
         <v>1690</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="55">
         <v>1745</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="55">
         <v>1961</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="55">
         <v>2055</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="55">
         <v>2136</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="55">
         <v>2218</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="55">
         <v>2313</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="55">
         <v>2322</v>
       </c>
-      <c r="V6" s="55">
+      <c r="V6" s="59">
         <v>2341</v>
       </c>
-      <c r="W6" s="55">
+      <c r="W6" s="59">
         <v>2406</v>
       </c>
-      <c r="X6" s="56">
+      <c r="X6" s="60">
         <v>2465</v>
       </c>
-      <c r="Y6" s="56">
+      <c r="Y6" s="60">
         <v>2554</v>
       </c>
-      <c r="Z6" s="56">
+      <c r="Z6" s="60">
         <v>2576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="51">
+        <v>139</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="55">
         <f t="shared" si="30"/>
         <v>154</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="55">
         <f t="shared" ref="D7:Z9" si="31">D4-C4</f>
         <v>127</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="55">
         <f t="shared" si="31"/>
         <v>123</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="55">
         <f t="shared" si="31"/>
         <v>94</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="55">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="55">
         <f t="shared" si="31"/>
         <v>102</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="55">
         <f t="shared" si="31"/>
         <v>182</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="55">
         <f t="shared" si="31"/>
         <v>213</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="55">
         <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="55">
         <f t="shared" si="31"/>
         <v>233</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="55">
         <f t="shared" si="31"/>
         <v>173</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="55">
         <f t="shared" si="31"/>
         <v>174</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="55">
         <f t="shared" si="31"/>
         <v>125</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="55">
         <f t="shared" si="31"/>
         <v>216</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="55">
         <f t="shared" si="31"/>
         <v>94</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="55">
         <f t="shared" si="31"/>
         <v>81</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="55">
         <f t="shared" si="31"/>
         <v>82</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="55">
         <f t="shared" si="31"/>
         <v>99</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="55">
         <f t="shared" si="31"/>
         <v>29</v>
       </c>
-      <c r="V7" s="51">
+      <c r="V7" s="55">
         <f t="shared" si="31"/>
         <v>19</v>
       </c>
-      <c r="W7" s="51">
+      <c r="W7" s="55">
         <v>95</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="55">
         <v>106</v>
       </c>
       <c r="Y7" s="15">
@@ -10067,279 +10196,279 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="C8" s="55">
         <f>C5-730</f>
         <v>63</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="55">
         <f t="shared" si="31"/>
         <v>69</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="55">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="55">
         <f t="shared" si="31"/>
         <v>60</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="55">
         <f t="shared" si="31"/>
         <v>17</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="55">
         <f t="shared" si="31"/>
         <v>12</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="55">
         <f t="shared" si="31"/>
         <v>30</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="55">
         <f t="shared" si="31"/>
         <v>49</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="55">
         <f t="shared" si="31"/>
         <v>14</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="55">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="55">
         <f t="shared" si="31"/>
         <v>76</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="55">
         <f t="shared" si="31"/>
         <v>88</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="55">
         <f t="shared" si="31"/>
         <v>70</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="55">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="55">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="55">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="55">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="55">
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="55">
         <f t="shared" si="31"/>
         <v>20</v>
       </c>
-      <c r="V8" s="51">
+      <c r="V8" s="55">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="55">
         <f t="shared" si="31"/>
         <v>30</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="55">
         <v>47</v>
       </c>
-      <c r="Y8" s="51">
+      <c r="Y8" s="55">
         <f t="shared" si="31"/>
         <v>69</v>
       </c>
-      <c r="Z8" s="51">
+      <c r="Z8" s="55">
         <f t="shared" si="31"/>
         <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="51">
+      <c r="A9" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="55">
         <f>C6-602</f>
         <v>91</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="55">
         <f t="shared" si="31"/>
         <v>58</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="55">
         <f t="shared" si="31"/>
         <v>118</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="55">
         <f t="shared" si="31"/>
         <v>34</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="55">
         <f t="shared" si="31"/>
         <v>48</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="55">
         <f t="shared" si="31"/>
         <v>90</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="55">
         <f t="shared" si="31"/>
         <v>152</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="55">
         <f t="shared" si="31"/>
         <v>164</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="55">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="55">
         <f t="shared" si="31"/>
         <v>148</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="55">
         <f t="shared" si="31"/>
         <v>97</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="55">
         <f t="shared" si="31"/>
         <v>86</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="55">
         <f t="shared" si="31"/>
         <v>55</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="55">
         <f t="shared" si="31"/>
         <v>216</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="55">
         <f t="shared" si="31"/>
         <v>94</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="55">
         <f t="shared" si="31"/>
         <v>81</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="55">
         <f t="shared" si="31"/>
         <v>82</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="55">
         <f t="shared" si="31"/>
         <v>95</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="55">
         <f t="shared" si="31"/>
         <v>9</v>
       </c>
-      <c r="V9" s="51">
+      <c r="V9" s="55">
         <f t="shared" si="31"/>
         <v>19</v>
       </c>
-      <c r="W9" s="51">
+      <c r="W9" s="55">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="55">
         <v>59</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="Y9" s="55">
         <f t="shared" si="31"/>
         <v>89</v>
       </c>
-      <c r="Z9" s="51">
+      <c r="Z9" s="55">
         <f t="shared" si="31"/>
         <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="51">
+        <v>140</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="55">
         <v>0</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="55">
         <v>0</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="55">
         <v>0</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="55">
         <v>5</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="55">
         <v>11</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="55">
         <v>23</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="55">
         <v>23</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="55">
         <v>39</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="55">
         <v>46</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="55">
         <v>48</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="55">
         <v>72</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="55">
         <v>81</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="55">
         <v>104</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="55">
         <v>130</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="55">
         <v>132</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="55">
         <v>132</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="55">
         <v>155</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="55">
         <v>175</v>
       </c>
-      <c r="U10" s="51">
+      <c r="U10" s="55">
         <v>179</v>
       </c>
-      <c r="V10" s="51">
+      <c r="V10" s="55">
         <v>181</v>
       </c>
-      <c r="W10" s="51">
+      <c r="W10" s="55">
         <v>424</v>
       </c>
       <c r="X10" s="15">
@@ -10354,72 +10483,72 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="51">
+        <v>141</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="55">
         <v>69600</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="55">
         <v>76900</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="55">
         <v>84700</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="55">
         <v>91700</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="55">
         <v>97000</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="55">
         <v>102600</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="55">
         <v>107100</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="55">
         <v>114400</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="55">
         <v>114400</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="55">
         <v>114400</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="55">
         <v>102800</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="55">
         <v>110300</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="55">
         <v>114400</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="55">
         <v>119900</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="55">
         <v>128300</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="55">
         <v>133200</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="55">
         <v>138900</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="55">
         <v>143300</v>
       </c>
-      <c r="U11" s="51">
+      <c r="U11" s="55">
         <v>143900</v>
       </c>
-      <c r="V11" s="51">
+      <c r="V11" s="55">
         <v>154650</v>
       </c>
-      <c r="W11" s="51">
+      <c r="W11" s="55">
         <v>167100</v>
       </c>
       <c r="X11" s="15">
@@ -10433,73 +10562,73 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="51">
+      <c r="C12" s="55">
         <v>59000</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="55">
         <v>63000</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="55">
         <v>68700</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="55">
         <v>74400</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="55">
         <v>79000</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="55">
         <v>83200</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="55">
         <v>85700</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="55">
         <v>89900</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="55">
         <v>89900</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="55">
         <v>89900</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="55">
         <v>75100</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="55">
         <v>80200</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="55">
         <v>82900</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="55">
         <v>86800</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="55">
         <v>92900</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="55">
         <v>95900</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="55">
         <v>99900</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="55">
         <v>102300</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="55">
         <v>102850</v>
       </c>
-      <c r="V12" s="52">
+      <c r="V12" s="56">
         <v>110150</v>
       </c>
-      <c r="W12" s="52">
+      <c r="W12" s="56">
         <v>119750</v>
       </c>
       <c r="X12" s="15">
@@ -10513,73 +10642,73 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="A13" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="55">
         <v>10100</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="55">
         <v>11000</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="55">
         <v>13100</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="55">
         <v>14500</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="55">
         <v>15200</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="55">
         <v>16400</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="55">
         <v>17900</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="55">
         <v>19600</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="55">
         <v>19600</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="55">
         <v>19600</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="55">
         <v>22500</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="55">
         <v>24000</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="55">
         <v>24000</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="55">
         <v>25600</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="55">
         <v>27900</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="55">
         <v>29800</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="55">
         <v>31500</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="55">
         <v>33500</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="55">
         <v>33550</v>
       </c>
-      <c r="V13" s="52">
+      <c r="V13" s="56">
         <v>37000</v>
       </c>
-      <c r="W13" s="52">
+      <c r="W13" s="56">
         <v>39850</v>
       </c>
       <c r="X13" s="15">
@@ -10594,101 +10723,101 @@
       <c r="AA13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="62"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="59">
+      <c r="B15" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="63">
         <v>14.199999999999999</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="63">
         <v>15.4</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="63">
         <v>16.5</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="63">
         <v>18.699999999999999</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="63">
         <v>19.800000000000001</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="63">
         <v>20</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="63">
         <v>20.5</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="63">
         <v>21.98</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="63">
         <v>21.5</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="63">
         <v>20.600000000000001</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="63">
         <v>23.5</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="63">
         <v>23.800000000000001</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="63">
         <v>24.100000000000001</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="63">
         <v>25.699999999999999</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="Q15" s="63">
         <v>27.5</v>
       </c>
-      <c r="R15" s="59">
+      <c r="R15" s="63">
         <v>30</v>
       </c>
-      <c r="S15" s="59">
+      <c r="S15" s="63">
         <v>32.799999999999997</v>
       </c>
-      <c r="T15" s="59">
+      <c r="T15" s="63">
         <v>34.399999999999999</v>
       </c>
-      <c r="U15" s="59">
+      <c r="U15" s="63">
         <v>35.899999999999999</v>
       </c>
-      <c r="V15" s="60">
+      <c r="V15" s="64">
         <v>42</v>
       </c>
-      <c r="W15" s="60">
+      <c r="W15" s="64">
         <v>41.600000000000001</v>
       </c>
       <c r="X15" s="14">
@@ -10697,78 +10826,78 @@
       <c r="Y15" s="14">
         <v>42.200000000000003</v>
       </c>
-      <c r="Z15" s="61">
+      <c r="Z15" s="65">
         <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="62">
+      <c r="C16" s="66">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="66">
         <v>0.66300000000000003</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="66">
         <v>0.84499999999999997</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="66">
         <v>1.05</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="66">
         <v>1.28</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="66">
         <v>1.496</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="66">
         <v>1.6599999999999999</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="66">
         <v>1.839</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="66">
         <v>1.8</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="66">
         <v>1.8700000000000001</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="67">
         <v>1.8999999999999999</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="66">
         <v>2.1000000000000001</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="66">
         <v>2.1299999999999999</v>
       </c>
-      <c r="P16" s="62">
+      <c r="P16" s="66">
         <v>2.1899999999999999</v>
       </c>
-      <c r="Q16" s="62">
+      <c r="Q16" s="66">
         <v>2.6000000000000001</v>
       </c>
-      <c r="R16" s="62">
+      <c r="R16" s="66">
         <v>2.75</v>
       </c>
-      <c r="S16" s="62">
+      <c r="S16" s="66">
         <v>2.96</v>
       </c>
-      <c r="T16" s="62">
+      <c r="T16" s="66">
         <v>3.1499999999999999</v>
       </c>
-      <c r="U16" s="62">
+      <c r="U16" s="66">
         <v>3.29</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="68">
         <v>3.46</v>
       </c>
-      <c r="W16" s="64">
+      <c r="W16" s="68">
         <v>3.6699999999999999</v>
       </c>
       <c r="X16" s="14">
@@ -10782,99 +10911,99 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="66"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="70"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59">
+        <v>145</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63">
         <v>5.9000000000000004</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="63">
         <v>6.2000000000000002</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="63">
         <v>6.2999999999999998</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="63">
         <v>6.5999999999999996</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="63">
         <v>6.5999999999999996</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="63">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="63">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="63">
         <v>4.7000000000000002</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="63">
         <v>4.7000000000000002</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="63">
         <v>4.7000000000000002</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="63">
         <v>4.7999999999999998</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="63">
         <v>4.7999999999999998</v>
       </c>
-      <c r="R18" s="59">
+      <c r="R18" s="63">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S18" s="59">
+      <c r="S18" s="63">
         <v>4.7999999999999998</v>
       </c>
-      <c r="T18" s="59">
+      <c r="T18" s="63">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U18" s="59">
+      <c r="U18" s="63">
         <v>5</v>
       </c>
-      <c r="V18" s="67">
+      <c r="V18" s="71">
         <v>5.0999999999999996</v>
       </c>
-      <c r="W18" s="67">
+      <c r="W18" s="71">
         <v>5.2000000000000002</v>
       </c>
       <c r="X18" s="14">
@@ -10889,155 +11018,155 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59">
+        <v>146</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63">
         <v>5.4000000000000004</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="63">
         <v>5.5</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="63">
         <v>5.5</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="63">
         <v>5.7999999999999998</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="63">
         <v>5.7000000000000002</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="63">
         <v>4.2999999999999998</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="63">
         <v>4</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="63">
         <v>4</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="63">
         <v>3.8999999999999999</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="63">
         <v>3.8999999999999999</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="63">
         <v>3.7999999999999998</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="63">
         <v>3.8999999999999999</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="63">
         <v>3.9500000000000002</v>
       </c>
-      <c r="R19" s="59">
+      <c r="R19" s="63">
         <v>4</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="63">
         <v>3.8999999999999999</v>
       </c>
-      <c r="T19" s="59">
+      <c r="T19" s="63">
         <v>4</v>
       </c>
-      <c r="U19" s="59">
+      <c r="U19" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="71">
         <v>4.2000000000000002</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="71">
         <v>4.2999999999999998</v>
       </c>
       <c r="X19" s="14">
         <v>4.5</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="65">
         <v>4</v>
       </c>
-      <c r="Z19" s="61">
+      <c r="Z19" s="65">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
+        <v>147</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
@@ -11113,176 +11242,176 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
+      <c r="A24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
     </row>
     <row r="25">
-      <c r="A25" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74">
+      <c r="A25" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78">
         <v>0.98960000000000004</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="78">
         <v>0.98729999999999996</v>
       </c>
-      <c r="G25" s="74">
+      <c r="G25" s="78">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="78">
         <v>0.98470000000000002</v>
       </c>
-      <c r="I25" s="74">
+      <c r="I25" s="78">
         <v>0.98550000000000004</v>
       </c>
-      <c r="J25" s="74">
+      <c r="J25" s="78">
         <v>0.98650000000000004</v>
       </c>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74">
+      <c r="K25" s="78"/>
+      <c r="L25" s="78">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M25" s="74">
+      <c r="M25" s="78">
         <v>0.98919999999999997</v>
       </c>
-      <c r="N25" s="74">
+      <c r="N25" s="78">
         <v>0.99519999999999997</v>
       </c>
-      <c r="O25" s="74">
+      <c r="O25" s="78">
         <v>0.99050000000000005</v>
       </c>
-      <c r="P25" s="74">
+      <c r="P25" s="78">
         <v>0.99580000000000002</v>
       </c>
-      <c r="Q25" s="74">
+      <c r="Q25" s="78">
         <v>0.99719999999999998</v>
       </c>
-      <c r="R25" s="74">
+      <c r="R25" s="78">
         <v>0.97889999999999999</v>
       </c>
-      <c r="S25" s="74">
+      <c r="S25" s="78">
         <v>0.99660000000000004</v>
       </c>
-      <c r="T25" s="74">
+      <c r="T25" s="78">
         <v>0.99629999999999996</v>
       </c>
-      <c r="U25" s="74">
+      <c r="U25" s="78">
         <v>0.99639999999999995</v>
       </c>
-      <c r="V25" s="75">
+      <c r="V25" s="79">
         <v>0.99590000000000001</v>
       </c>
-      <c r="W25" s="75">
+      <c r="W25" s="79">
         <v>0.99580000000000002</v>
       </c>
-      <c r="X25" s="75">
+      <c r="X25" s="79">
         <v>0.99509999999999998</v>
       </c>
-      <c r="Y25" s="75">
+      <c r="Y25" s="79">
         <v>0.99439999999999995</v>
       </c>
-      <c r="Z25" s="75">
+      <c r="Z25" s="79">
         <v>0.99380000000000002</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="74">
+      <c r="A26" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="78">
         <v>0.0070000000000000001</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="78">
         <v>0.0089999999999999993</v>
       </c>
-      <c r="G26" s="74">
+      <c r="G26" s="78">
         <v>0.0095999999999999992</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="78">
         <v>0.0104</v>
       </c>
-      <c r="I26" s="74">
+      <c r="I26" s="78">
         <v>0.0095999999999999992</v>
       </c>
-      <c r="J26" s="74">
+      <c r="J26" s="78">
         <v>0.0088999999999999999</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74">
+      <c r="K26" s="78"/>
+      <c r="L26" s="78">
         <v>0.078</v>
       </c>
-      <c r="M26" s="74">
+      <c r="M26" s="78">
         <v>0.0077999999999999996</v>
       </c>
-      <c r="N26" s="74">
+      <c r="N26" s="78">
         <v>0.0025000000000000001</v>
       </c>
-      <c r="O26" s="74">
+      <c r="O26" s="78">
         <v>0.0068999999999999999</v>
       </c>
-      <c r="P26" s="74">
+      <c r="P26" s="78">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="Q26" s="74">
+      <c r="Q26" s="78">
         <v>0.0022000000000000001</v>
       </c>
-      <c r="R26" s="74">
+      <c r="R26" s="78">
         <v>0.0025000000000000001</v>
       </c>
-      <c r="S26" s="74">
+      <c r="S26" s="78">
         <v>0.0030000000000000001</v>
       </c>
-      <c r="T26" s="74">
+      <c r="T26" s="78">
         <v>0.0030000000000000001</v>
       </c>
-      <c r="U26" s="74">
+      <c r="U26" s="78">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="V26" s="75">
+      <c r="V26" s="79">
         <v>0.0032000000000000002</v>
       </c>
-      <c r="W26" s="75">
+      <c r="W26" s="79">
         <v>0.0035000000000000001</v>
       </c>
-      <c r="X26" s="75">
+      <c r="X26" s="79">
         <v>0.0037000000000000002</v>
       </c>
-      <c r="Y26" s="75">
+      <c r="Y26" s="79">
         <v>0.0040000000000000001</v>
       </c>
-      <c r="Z26" s="75">
+      <c r="Z26" s="79">
         <v>0.0051000000000000004</v>
       </c>
       <c r="AA26" s="27">
@@ -11295,501 +11424,501 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="76">
+        <v>0.876</v>
+      </c>
+      <c r="D28" s="76">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="E28" s="78">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="F28" s="78">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="G28" s="78">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="H28" s="78">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="I28" s="78">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="J28" s="78">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="M28" s="78">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="N28" s="78">
+        <v>0.7802</v>
+      </c>
+      <c r="O28" s="78">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="P28" s="78">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="Q28" s="78">
+        <v>0.8286</v>
+      </c>
+      <c r="R28" s="78">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="S28" s="78">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="T28" s="78">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="U28" s="78">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="V28" s="79">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="W28" s="79">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="X28" s="79">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="Y28" s="79">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="Z28" s="79">
+        <v>0.94420000000000004</v>
+      </c>
+    </row>
+    <row r="29" s="80" customFormat="1">
+      <c r="A29" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="72">
-        <v>0.876</v>
-      </c>
-      <c r="D28" s="72">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="E28" s="74">
-        <v>0.89680000000000004</v>
-      </c>
-      <c r="F28" s="74">
-        <v>0.90149999999999997</v>
-      </c>
-      <c r="G28" s="74">
-        <v>0.88739999999999997</v>
-      </c>
-      <c r="H28" s="74">
-        <v>0.87629999999999997</v>
-      </c>
-      <c r="I28" s="74">
-        <v>0.85809999999999997</v>
-      </c>
-      <c r="J28" s="74">
-        <v>0.85999999999999999</v>
-      </c>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74">
-        <v>0.72619999999999996</v>
-      </c>
-      <c r="M28" s="74">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="N28" s="74">
-        <v>0.7802</v>
-      </c>
-      <c r="O28" s="74">
-        <v>0.71140000000000003</v>
-      </c>
-      <c r="P28" s="74">
-        <v>0.77759999999999996</v>
-      </c>
-      <c r="Q28" s="74">
-        <v>0.8286</v>
-      </c>
-      <c r="R28" s="74">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="S28" s="74">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="T28" s="74">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="U28" s="74">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="V28" s="75">
-        <v>0.93279999999999996</v>
-      </c>
-      <c r="W28" s="75">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="X28" s="75">
-        <v>0.94710000000000005</v>
-      </c>
-      <c r="Y28" s="75">
-        <v>0.94720000000000004</v>
-      </c>
-      <c r="Z28" s="75">
-        <v>0.94420000000000004</v>
-      </c>
-    </row>
-    <row r="29" s="76" customFormat="1">
-      <c r="A29" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83">
         <v>0.0596</v>
       </c>
-      <c r="D29" s="79">
+      <c r="D29" s="83">
         <v>0.056800000000000003</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="84">
         <v>0.083599999999999994</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="84">
         <v>0.080600000000000005</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="84">
         <v>0.093899999999999997</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="84">
         <v>0.1017</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="84">
         <v>0.1169</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="84">
         <v>0.11269999999999999</v>
       </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81">
+      <c r="K29" s="84"/>
+      <c r="L29" s="85">
         <v>0.25190000000000001</v>
       </c>
-      <c r="M29" s="80">
+      <c r="M29" s="84">
         <v>0.1759</v>
       </c>
-      <c r="N29" s="80">
+      <c r="N29" s="84">
         <v>0.17369999999999999</v>
       </c>
-      <c r="O29" s="80">
+      <c r="O29" s="84">
         <v>0.16350000000000001</v>
       </c>
-      <c r="P29" s="80">
+      <c r="P29" s="84">
         <v>0.12670000000000001</v>
       </c>
-      <c r="Q29" s="80">
+      <c r="Q29" s="84">
         <v>0.1101</v>
       </c>
-      <c r="R29" s="80">
+      <c r="R29" s="84">
         <v>0.087400000000000005</v>
       </c>
-      <c r="S29" s="80">
+      <c r="S29" s="84">
         <v>0.084099999999999994</v>
       </c>
-      <c r="T29" s="80">
+      <c r="T29" s="84">
         <v>0.063399999999999998</v>
       </c>
-      <c r="U29" s="80">
+      <c r="U29" s="84">
         <v>0.052200000000000003</v>
       </c>
-      <c r="V29" s="82">
+      <c r="V29" s="86">
         <v>0.042299999999999997</v>
       </c>
-      <c r="W29" s="82">
+      <c r="W29" s="86">
         <v>0.037100000000000001</v>
       </c>
-      <c r="X29" s="82">
+      <c r="X29" s="86">
         <v>0.036900000000000002</v>
       </c>
-      <c r="Y29" s="82">
+      <c r="Y29" s="86">
         <v>0.038300000000000001</v>
       </c>
-      <c r="Z29" s="82">
+      <c r="Z29" s="86">
         <v>0.0395</v>
       </c>
-      <c r="AA29" s="83">
+      <c r="AA29" s="87">
         <f>MAX(E29:Z29)</f>
         <v>0.25190000000000001</v>
       </c>
-      <c r="AB29" s="83">
+      <c r="AB29" s="87">
         <f>AVERAGE(C29:Z29)</f>
         <v>0.095165217391304346</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="72">
+      <c r="A30" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="76">
         <f>1-C28-C29</f>
         <v>0.064399999999999999</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="76">
         <f>1-D28-D29</f>
         <v>0.060000000000000012</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="88">
         <f>1-E28-E29</f>
         <v>0.019599999999999965</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="76">
         <f>1-F28-F29</f>
         <v>0.017900000000000027</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="88">
         <f>1-G28-G29</f>
         <v>0.018700000000000036</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="76">
         <f>1-H28-H29</f>
         <v>0.022000000000000033</v>
       </c>
-      <c r="I30" s="84">
+      <c r="I30" s="88">
         <f>1-I28-I29</f>
         <v>0.025000000000000022</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="76">
         <f>1-J28-J29</f>
         <v>0.027300000000000019</v>
       </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="84">
+      <c r="K30" s="78"/>
+      <c r="L30" s="88">
         <f>1-L28-L29</f>
         <v>0.021900000000000031</v>
       </c>
-      <c r="M30" s="72">
+      <c r="M30" s="76">
         <f>1-M28-M29</f>
         <v>0.062600000000000044</v>
       </c>
-      <c r="N30" s="84">
+      <c r="N30" s="88">
         <f>1-N28-N29</f>
         <v>0.046100000000000002</v>
       </c>
-      <c r="O30" s="72">
+      <c r="O30" s="76">
         <f>1-O28-O29</f>
         <v>0.12509999999999996</v>
       </c>
-      <c r="P30" s="84">
+      <c r="P30" s="88">
         <f>1-P28-P29</f>
         <v>0.095700000000000035</v>
       </c>
-      <c r="Q30" s="72">
+      <c r="Q30" s="76">
         <f>1-Q28-Q29</f>
         <v>0.061299999999999993</v>
       </c>
-      <c r="R30" s="84">
+      <c r="R30" s="88">
         <f>1-R28-R29</f>
         <v>0.060700000000000004</v>
       </c>
-      <c r="S30" s="72">
+      <c r="S30" s="76">
         <f>1-S28-S29</f>
         <v>0.055700000000000041</v>
       </c>
-      <c r="T30" s="84">
+      <c r="T30" s="88">
         <f>1-T28-T29</f>
         <v>0.04320000000000003</v>
       </c>
-      <c r="U30" s="72">
+      <c r="U30" s="76">
         <f>1-U28-U29</f>
         <v>0.031000000000000048</v>
       </c>
-      <c r="V30" s="72">
+      <c r="V30" s="76">
         <f>1-V28-V29</f>
         <v>0.02490000000000004</v>
       </c>
-      <c r="W30" s="72">
+      <c r="W30" s="76">
         <f>1-W28-W29</f>
         <v>0.01990000000000005</v>
       </c>
-      <c r="X30" s="72">
+      <c r="X30" s="76">
         <f>1-X28-X29</f>
         <v>0.015999999999999945</v>
       </c>
-      <c r="Y30" s="72">
+      <c r="Y30" s="76">
         <f>1-Y28-Y29</f>
         <v>0.014499999999999957</v>
       </c>
-      <c r="Z30" s="72">
+      <c r="Z30" s="76">
         <f>1-Z28-Z29</f>
         <v>0.01629999999999996</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="71"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
     </row>
     <row r="32">
-      <c r="A32" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
+      <c r="A32" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
     </row>
     <row r="33">
-      <c r="A33" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="72">
+      <c r="A33" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="76">
         <v>0.98470000000000002</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="76">
         <v>0.98719999999999997</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="78">
         <v>0.98809999999999998</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="78">
         <v>0.98299999999999998</v>
       </c>
-      <c r="G33" s="74">
+      <c r="G33" s="78">
         <v>0.97689999999999999</v>
       </c>
-      <c r="H33" s="74">
+      <c r="H33" s="78">
         <v>0.97850000000000004</v>
       </c>
-      <c r="I33" s="74">
+      <c r="I33" s="78">
         <v>0.98240000000000005</v>
       </c>
-      <c r="J33" s="74">
+      <c r="J33" s="78">
         <v>0.9849</v>
       </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74">
+      <c r="K33" s="78"/>
+      <c r="L33" s="78">
         <v>0.88739999999999997</v>
       </c>
-      <c r="M33" s="74">
+      <c r="M33" s="78">
         <v>0.98780000000000001</v>
       </c>
-      <c r="N33" s="74">
+      <c r="N33" s="78">
         <v>0.99270000000000003</v>
       </c>
-      <c r="O33" s="74">
+      <c r="O33" s="78">
         <v>0.98709999999999998</v>
       </c>
-      <c r="P33" s="74">
+      <c r="P33" s="78">
         <v>0.99560000000000004</v>
       </c>
-      <c r="Q33" s="74">
+      <c r="Q33" s="78">
         <v>0.99739999999999995</v>
       </c>
-      <c r="R33" s="74">
+      <c r="R33" s="78">
         <v>0.99660000000000004</v>
       </c>
-      <c r="S33" s="74">
+      <c r="S33" s="78">
         <v>0.99460000000000004</v>
       </c>
-      <c r="T33" s="74">
+      <c r="T33" s="78">
         <v>0.99490000000000001</v>
       </c>
-      <c r="U33" s="74">
+      <c r="U33" s="78">
         <v>0.99570000000000003</v>
       </c>
-      <c r="V33" s="75">
+      <c r="V33" s="79">
         <v>0.99539999999999995</v>
       </c>
-      <c r="W33" s="75">
+      <c r="W33" s="79">
         <v>0.99460000000000004</v>
       </c>
-      <c r="X33" s="75">
+      <c r="X33" s="79">
         <v>0.99409999999999998</v>
       </c>
-      <c r="Y33" s="75">
+      <c r="Y33" s="79">
         <v>0.99399999999999999</v>
       </c>
-      <c r="Z33" s="75">
+      <c r="Z33" s="79">
         <v>0.99250000000000005</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="72">
+      <c r="A34" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="76">
         <v>0.0088999999999999999</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="76">
         <v>0.0074000000000000003</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="78">
         <v>0.0080000000000000002</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="78">
         <v>0.0121</v>
       </c>
-      <c r="G34" s="74">
+      <c r="G34" s="78">
         <v>0.015100000000000001</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="78">
         <v>0.0137</v>
       </c>
-      <c r="I34" s="74">
+      <c r="I34" s="78">
         <v>0.010800000000000001</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="78">
         <v>0.0097000000000000003</v>
       </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="85">
+      <c r="K34" s="78"/>
+      <c r="L34" s="89">
         <v>0.1114</v>
       </c>
-      <c r="M34" s="74">
+      <c r="M34" s="78">
         <v>0.0088000000000000005</v>
       </c>
-      <c r="N34" s="74">
+      <c r="N34" s="78">
         <v>0.0033999999999999998</v>
       </c>
-      <c r="O34" s="74">
+      <c r="O34" s="78">
         <v>0.0094999999999999998</v>
       </c>
-      <c r="P34" s="74">
+      <c r="P34" s="78">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="Q34" s="74">
+      <c r="Q34" s="78">
         <v>0.002</v>
       </c>
-      <c r="R34" s="74">
+      <c r="R34" s="78">
         <v>0.0030000000000000001</v>
       </c>
-      <c r="S34" s="74">
+      <c r="S34" s="78">
         <v>0.0047999999999999996</v>
       </c>
-      <c r="T34" s="74">
+      <c r="T34" s="78">
         <v>0.0040000000000000001</v>
       </c>
-      <c r="U34" s="74">
+      <c r="U34" s="78">
         <v>0.0032000000000000002</v>
       </c>
-      <c r="V34" s="75">
+      <c r="V34" s="79">
         <v>0.0038</v>
       </c>
-      <c r="W34" s="75">
+      <c r="W34" s="79">
         <v>0.0045999999999999999</v>
       </c>
-      <c r="X34" s="75">
+      <c r="X34" s="79">
         <v>0.0045999999999999999</v>
       </c>
-      <c r="Y34" s="75">
+      <c r="Y34" s="79">
         <v>0.0045999999999999999</v>
       </c>
-      <c r="Z34" s="75">
+      <c r="Z34" s="79">
         <v>0.0064999999999999997</v>
       </c>
       <c r="AA34" s="27">
@@ -11802,176 +11931,176 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="70"/>
+      <c r="A35" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
     </row>
     <row r="36">
-      <c r="A36" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="74">
+      <c r="A36" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="78">
         <v>0.9859</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="78">
         <v>0.98519999999999996</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="78">
         <v>0.9829</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="78">
         <v>0.98119999999999996</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="78">
         <v>0.98019999999999996</v>
       </c>
-      <c r="J36" s="74">
+      <c r="J36" s="78">
         <v>0.97999999999999998</v>
       </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74">
+      <c r="K36" s="78"/>
+      <c r="L36" s="78">
         <v>0.9052</v>
       </c>
-      <c r="M36" s="74">
+      <c r="M36" s="78">
         <v>0.95440000000000003</v>
       </c>
-      <c r="N36" s="74">
+      <c r="N36" s="78">
         <v>0.96909999999999996</v>
       </c>
-      <c r="O36" s="74">
+      <c r="O36" s="78">
         <v>0.95150000000000001</v>
       </c>
-      <c r="P36" s="74">
+      <c r="P36" s="78">
         <v>0.97370000000000001</v>
       </c>
-      <c r="Q36" s="74">
+      <c r="Q36" s="78">
         <v>0.98219999999999996</v>
       </c>
-      <c r="R36" s="74">
+      <c r="R36" s="78">
         <v>0.98480000000000001</v>
       </c>
-      <c r="S36" s="74">
+      <c r="S36" s="78">
         <v>0.98640000000000005</v>
       </c>
-      <c r="T36" s="74">
+      <c r="T36" s="78">
         <v>0.98750000000000004</v>
       </c>
-      <c r="U36" s="74">
+      <c r="U36" s="78">
         <v>0.98780000000000001</v>
       </c>
-      <c r="V36" s="75">
+      <c r="V36" s="79">
         <v>0.9879</v>
       </c>
-      <c r="W36" s="75">
+      <c r="W36" s="79">
         <v>0.98719999999999997</v>
       </c>
-      <c r="X36" s="75">
+      <c r="X36" s="79">
         <v>0.98740000000000006</v>
       </c>
-      <c r="Y36" s="75">
+      <c r="Y36" s="79">
         <v>0.9859</v>
       </c>
-      <c r="Z36" s="75">
+      <c r="Z36" s="79">
         <v>0.98450000000000004</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="74">
+      <c r="A37" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="78">
         <v>0.0103</v>
       </c>
-      <c r="F37" s="74">
+      <c r="F37" s="78">
         <v>0.0109</v>
       </c>
-      <c r="G37" s="74">
+      <c r="G37" s="78">
         <v>0.012</v>
       </c>
-      <c r="H37" s="74">
+      <c r="H37" s="78">
         <v>0.013299999999999999</v>
       </c>
-      <c r="I37" s="74">
+      <c r="I37" s="78">
         <v>0.013899999999999999</v>
       </c>
-      <c r="J37" s="74">
+      <c r="J37" s="78">
         <v>0.0143</v>
       </c>
-      <c r="K37" s="74"/>
-      <c r="L37" s="85">
+      <c r="K37" s="78"/>
+      <c r="L37" s="89">
         <v>0.090300000000000005</v>
       </c>
-      <c r="M37" s="74">
+      <c r="M37" s="78">
         <v>0.033500000000000002</v>
       </c>
-      <c r="N37" s="74">
+      <c r="N37" s="78">
         <v>0.025999999999999999</v>
       </c>
-      <c r="O37" s="74">
+      <c r="O37" s="78">
         <v>0.0378</v>
       </c>
-      <c r="P37" s="74">
+      <c r="P37" s="78">
         <v>0.020799999999999999</v>
       </c>
-      <c r="Q37" s="74">
+      <c r="Q37" s="78">
         <v>0.0143</v>
       </c>
-      <c r="R37" s="74">
+      <c r="R37" s="78">
         <v>0.012699999999999999</v>
       </c>
-      <c r="S37" s="74">
+      <c r="S37" s="78">
         <v>0.0115</v>
       </c>
-      <c r="T37" s="74">
+      <c r="T37" s="78">
         <v>0.0101</v>
       </c>
-      <c r="U37" s="74">
+      <c r="U37" s="78">
         <v>0.0094999999999999998</v>
       </c>
-      <c r="V37" s="75">
+      <c r="V37" s="79">
         <v>0.0095999999999999992</v>
       </c>
-      <c r="W37" s="75">
+      <c r="W37" s="79">
         <v>0.0104</v>
       </c>
-      <c r="X37" s="75">
+      <c r="X37" s="79">
         <v>0.0094999999999999998</v>
       </c>
-      <c r="Y37" s="75">
+      <c r="Y37" s="79">
         <v>0.0094999999999999998</v>
       </c>
-      <c r="Z37" s="75">
+      <c r="Z37" s="79">
         <v>0.0109</v>
       </c>
       <c r="AA37" s="27">
@@ -11984,160 +12113,160 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="75"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
+      <c r="A38" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
     </row>
     <row r="39">
-      <c r="A39" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74">
+      <c r="A39" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78">
         <v>0.99029381046244991</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J39" s="78">
         <v>0.99009999999999998</v>
       </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74">
+      <c r="K39" s="78"/>
+      <c r="L39" s="78">
         <v>0.9576392213501167</v>
       </c>
-      <c r="M39" s="74">
+      <c r="M39" s="78">
         <v>0.97341178704203213</v>
       </c>
-      <c r="N39" s="74">
+      <c r="N39" s="78">
         <v>0.98532075098099725</v>
       </c>
-      <c r="O39" s="74">
+      <c r="O39" s="78">
         <v>0.97345371083452703</v>
       </c>
-      <c r="P39" s="74">
+      <c r="P39" s="78">
         <v>0.98526217323812693</v>
       </c>
-      <c r="Q39" s="74">
+      <c r="Q39" s="78">
         <v>0.98735033106839909</v>
       </c>
-      <c r="R39" s="74">
+      <c r="R39" s="78">
         <v>0.9892688064394809</v>
       </c>
-      <c r="S39" s="74">
+      <c r="S39" s="78">
         <v>0.99019999999999997</v>
       </c>
-      <c r="T39" s="74">
+      <c r="T39" s="78">
         <v>0.99050000000000005</v>
       </c>
-      <c r="U39" s="74">
+      <c r="U39" s="78">
         <v>0.99160000000000004</v>
       </c>
-      <c r="V39" s="75">
+      <c r="V39" s="79">
         <v>0.99250000000000005</v>
       </c>
-      <c r="W39" s="75">
+      <c r="W39" s="79">
         <v>0.99250000000000005</v>
       </c>
-      <c r="X39" s="75">
+      <c r="X39" s="79">
         <v>0.99250000000000005</v>
       </c>
-      <c r="Y39" s="75">
+      <c r="Y39" s="79">
         <v>0.99070000000000003</v>
       </c>
-      <c r="Z39" s="75">
+      <c r="Z39" s="79">
         <v>0.98770000000000002</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74">
+      <c r="A40" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78">
         <v>0.0059558037967183527</v>
       </c>
-      <c r="J40" s="74">
+      <c r="J40" s="78">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74">
+      <c r="K40" s="78"/>
+      <c r="L40" s="78">
         <v>0.037353437460612551</v>
       </c>
-      <c r="M40" s="74">
+      <c r="M40" s="78">
         <v>0.018285938848102659</v>
       </c>
-      <c r="N40" s="74">
+      <c r="N40" s="78">
         <v>0.011700789030713758</v>
       </c>
-      <c r="O40" s="74">
+      <c r="O40" s="78">
         <v>0.019452646028776374</v>
       </c>
-      <c r="P40" s="74">
+      <c r="P40" s="78">
         <v>0.010353494019730297</v>
       </c>
-      <c r="Q40" s="74">
+      <c r="Q40" s="78">
         <v>0.00905476414515494</v>
       </c>
-      <c r="R40" s="74">
+      <c r="R40" s="78">
         <v>0.0069371556439941388</v>
       </c>
-      <c r="S40" s="74">
+      <c r="S40" s="78">
         <v>0.0063</v>
       </c>
-      <c r="T40" s="74">
+      <c r="T40" s="78">
         <v>0.0055999999999999999</v>
       </c>
-      <c r="U40" s="74">
+      <c r="U40" s="78">
         <v>0.0043</v>
       </c>
-      <c r="V40" s="75">
+      <c r="V40" s="79">
         <v>0.0041999999999999997</v>
       </c>
-      <c r="W40" s="75">
+      <c r="W40" s="79">
         <v>0.0044999999999999997</v>
       </c>
-      <c r="X40" s="75">
+      <c r="X40" s="79">
         <v>0.0041000000000000003</v>
       </c>
-      <c r="Y40" s="75">
+      <c r="Y40" s="79">
         <v>0.0048999999999999998</v>
       </c>
-      <c r="Z40" s="75">
+      <c r="Z40" s="79">
         <v>0.0061999999999999998</v>
       </c>
       <c r="AA40" s="27">
@@ -12150,160 +12279,160 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
+      <c r="A41" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
     </row>
     <row r="42">
-      <c r="A42" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74">
+      <c r="A42" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78">
         <v>0.98535615932046927</v>
       </c>
-      <c r="J42" s="74">
+      <c r="J42" s="78">
         <v>0.98089999999999999</v>
       </c>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74">
+      <c r="K42" s="78"/>
+      <c r="L42" s="78">
         <v>0.92285529054346793</v>
       </c>
-      <c r="M42" s="74">
+      <c r="M42" s="78">
         <v>0.94653766597279831</v>
       </c>
-      <c r="N42" s="74">
+      <c r="N42" s="78">
         <v>0.97445272057327714</v>
       </c>
-      <c r="O42" s="74">
+      <c r="O42" s="78">
         <v>0.96191309439814998</v>
       </c>
-      <c r="P42" s="74">
+      <c r="P42" s="78">
         <v>0.98037664263716895</v>
       </c>
-      <c r="Q42" s="74">
+      <c r="Q42" s="78">
         <v>0.98604562319188682</v>
       </c>
-      <c r="R42" s="74">
+      <c r="R42" s="78">
         <v>0.9893215297089224</v>
       </c>
-      <c r="S42" s="74">
+      <c r="S42" s="78">
         <v>0.98980000000000001</v>
       </c>
-      <c r="T42" s="74">
+      <c r="T42" s="78">
         <v>0.99239999999999995</v>
       </c>
-      <c r="U42" s="74">
+      <c r="U42" s="78">
         <v>0.99339999999999995</v>
       </c>
-      <c r="V42" s="75">
+      <c r="V42" s="79">
         <v>0.99399999999999999</v>
       </c>
-      <c r="W42" s="75">
+      <c r="W42" s="79">
         <v>0.99329999999999996</v>
       </c>
-      <c r="X42" s="75">
+      <c r="X42" s="79">
         <v>0.99339999999999995</v>
       </c>
-      <c r="Y42" s="75">
+      <c r="Y42" s="79">
         <v>0.99270000000000003</v>
       </c>
-      <c r="Z42" s="75">
+      <c r="Z42" s="79">
         <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74">
+      <c r="A43" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78">
         <v>0.0036729563336181915</v>
       </c>
-      <c r="J43" s="74">
+      <c r="J43" s="78">
         <v>0.0082000000000000007</v>
       </c>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74">
+      <c r="K43" s="78"/>
+      <c r="L43" s="78">
         <v>0.065438915980336715</v>
       </c>
-      <c r="M43" s="74">
+      <c r="M43" s="78">
         <v>0.028408069294449542</v>
       </c>
-      <c r="N43" s="74">
+      <c r="N43" s="78">
         <v>0.016293401617524041</v>
       </c>
-      <c r="O43" s="74">
+      <c r="O43" s="78">
         <v>0.02572328818205669</v>
       </c>
-      <c r="P43" s="74">
+      <c r="P43" s="78">
         <v>0.011241415913459814</v>
       </c>
-      <c r="Q43" s="74">
+      <c r="Q43" s="78">
         <v>0.0085975952189625247</v>
       </c>
-      <c r="R43" s="74">
+      <c r="R43" s="78">
         <v>0.0066227741634839309</v>
       </c>
-      <c r="S43" s="74">
+      <c r="S43" s="78">
         <v>0.0063</v>
       </c>
-      <c r="T43" s="74">
+      <c r="T43" s="78">
         <v>0.0032000000000000002</v>
       </c>
-      <c r="U43" s="74">
+      <c r="U43" s="78">
         <v>0.0025999999999999999</v>
       </c>
-      <c r="V43" s="75">
+      <c r="V43" s="79">
         <v>0.0030999999999999999</v>
       </c>
-      <c r="W43" s="75">
+      <c r="W43" s="79">
         <v>0.0033999999999999998</v>
       </c>
-      <c r="X43" s="75">
+      <c r="X43" s="79">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="Y43" s="75">
+      <c r="Y43" s="79">
         <v>0.0033999999999999998</v>
       </c>
-      <c r="Z43" s="75">
+      <c r="Z43" s="79">
         <v>0.0055999999999999999</v>
       </c>
       <c r="AA43" s="27">
@@ -12316,176 +12445,176 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
+      <c r="A44" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
     </row>
     <row r="45">
-      <c r="A45" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="74">
+      <c r="A45" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="78">
         <v>0.99539999999999995</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="78">
         <v>0.99260000000000004</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="78">
         <v>0.98929999999999996</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="78">
         <v>0.98870000000000002</v>
       </c>
-      <c r="I45" s="74">
+      <c r="I45" s="78">
         <v>0.99209999999999998</v>
       </c>
-      <c r="J45" s="74">
+      <c r="J45" s="78">
         <v>0.99329999999999996</v>
       </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74">
+      <c r="K45" s="78"/>
+      <c r="L45" s="78">
         <v>0.9284</v>
       </c>
-      <c r="M45" s="74">
+      <c r="M45" s="78">
         <v>0.99209999999999998</v>
       </c>
-      <c r="N45" s="74">
+      <c r="N45" s="78">
         <v>0.99750000000000005</v>
       </c>
-      <c r="O45" s="74">
+      <c r="O45" s="78">
         <v>0.9889</v>
       </c>
-      <c r="P45" s="74">
+      <c r="P45" s="78">
         <v>0.996</v>
       </c>
-      <c r="Q45" s="74">
+      <c r="Q45" s="78">
         <v>0.99819999999999998</v>
       </c>
-      <c r="R45" s="74">
+      <c r="R45" s="78">
         <v>0.99790000000000001</v>
       </c>
-      <c r="S45" s="74">
+      <c r="S45" s="78">
         <v>0.99729999999999996</v>
       </c>
-      <c r="T45" s="74">
+      <c r="T45" s="78">
         <v>0.99639999999999995</v>
       </c>
-      <c r="U45" s="74">
+      <c r="U45" s="78">
         <v>0.997</v>
       </c>
-      <c r="V45" s="75">
+      <c r="V45" s="79">
         <v>0.99639999999999995</v>
       </c>
-      <c r="W45" s="75">
+      <c r="W45" s="79">
         <v>0.99650000000000005</v>
       </c>
-      <c r="X45" s="75">
+      <c r="X45" s="79">
         <v>0.996</v>
       </c>
-      <c r="Y45" s="75">
+      <c r="Y45" s="79">
         <v>0.99619999999999997</v>
       </c>
-      <c r="Z45" s="75">
+      <c r="Z45" s="79">
         <v>0.99619999999999997</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="74">
+      <c r="A46" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="78">
         <v>0.0023999999999999998</v>
       </c>
-      <c r="F46" s="74">
+      <c r="F46" s="78">
         <v>0.0044999999999999997</v>
       </c>
-      <c r="G46" s="74">
+      <c r="G46" s="78">
         <v>0.0063</v>
       </c>
-      <c r="H46" s="74">
+      <c r="H46" s="78">
         <v>0.0051000000000000004</v>
       </c>
-      <c r="I46" s="74">
+      <c r="I46" s="78">
         <v>0.0035999999999999999</v>
       </c>
-      <c r="J46" s="74">
+      <c r="J46" s="78">
         <v>0.0032000000000000002</v>
       </c>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74">
+      <c r="K46" s="78"/>
+      <c r="L46" s="78">
         <v>0.071099999999999997</v>
       </c>
-      <c r="M46" s="74">
+      <c r="M46" s="78">
         <v>0.0051999999999999998</v>
       </c>
-      <c r="N46" s="74">
+      <c r="N46" s="78">
         <v>0.001</v>
       </c>
-      <c r="O46" s="74">
+      <c r="O46" s="78">
         <v>0.0080000000000000002</v>
       </c>
-      <c r="P46" s="74">
+      <c r="P46" s="78">
         <v>0.0018</v>
       </c>
-      <c r="Q46" s="74">
+      <c r="Q46" s="78">
         <v>0.0014</v>
       </c>
-      <c r="R46" s="74">
+      <c r="R46" s="78">
         <v>0.0018</v>
       </c>
-      <c r="S46" s="74">
+      <c r="S46" s="78">
         <v>0.0023999999999999998</v>
       </c>
-      <c r="T46" s="74">
+      <c r="T46" s="78">
         <v>0.0028</v>
       </c>
-      <c r="U46" s="74">
+      <c r="U46" s="78">
         <v>0.0022000000000000001</v>
       </c>
-      <c r="V46" s="75">
+      <c r="V46" s="79">
         <v>0.0028</v>
       </c>
-      <c r="W46" s="75">
+      <c r="W46" s="79">
         <v>0.0028</v>
       </c>
-      <c r="X46" s="75">
+      <c r="X46" s="79">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="Y46" s="75">
+      <c r="Y46" s="79">
         <v>0.0023</v>
       </c>
-      <c r="Z46" s="75">
+      <c r="Z46" s="79">
         <v>0.0030000000000000001</v>
       </c>
       <c r="AA46" s="27">
@@ -12498,160 +12627,160 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
+      <c r="A47" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
     </row>
     <row r="48">
-      <c r="A48" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74">
+      <c r="A48" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78">
         <v>0.9889561648719023</v>
       </c>
-      <c r="J48" s="74">
+      <c r="J48" s="78">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74">
+      <c r="K48" s="78"/>
+      <c r="L48" s="78">
         <v>0.92450271555177466</v>
       </c>
-      <c r="M48" s="74">
+      <c r="M48" s="78">
         <v>0.95346913302933722</v>
       </c>
-      <c r="N48" s="74">
+      <c r="N48" s="78">
         <v>0.97612858846458928</v>
       </c>
-      <c r="O48" s="74">
+      <c r="O48" s="78">
         <v>0.95258195051440597</v>
       </c>
-      <c r="P48" s="74">
+      <c r="P48" s="78">
         <v>0.96895720353083481</v>
       </c>
-      <c r="Q48" s="74">
+      <c r="Q48" s="78">
         <v>0.97837281744607274</v>
       </c>
-      <c r="R48" s="74">
+      <c r="R48" s="78">
         <v>0.9803128722793425</v>
       </c>
-      <c r="S48" s="74">
+      <c r="S48" s="78">
         <v>0.98199999999999998</v>
       </c>
-      <c r="T48" s="74">
+      <c r="T48" s="78">
         <v>0.98240000000000005</v>
       </c>
-      <c r="U48" s="74">
+      <c r="U48" s="78">
         <v>0.98370000000000002</v>
       </c>
-      <c r="V48" s="75">
+      <c r="V48" s="79">
         <v>0.9849</v>
       </c>
-      <c r="W48" s="75">
+      <c r="W48" s="79">
         <v>0.98219999999999996</v>
       </c>
-      <c r="X48" s="75">
+      <c r="X48" s="79">
         <v>0.98309999999999997</v>
       </c>
-      <c r="Y48" s="75">
+      <c r="Y48" s="79">
         <v>0.97999999999999998</v>
       </c>
-      <c r="Z48" s="75">
+      <c r="Z48" s="79">
         <v>0.98040000000000005</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74">
+      <c r="A49" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78">
         <v>0.0071046355635015889</v>
       </c>
-      <c r="J49" s="74">
+      <c r="J49" s="78">
         <v>0.0066</v>
       </c>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74">
+      <c r="K49" s="78"/>
+      <c r="L49" s="78">
         <v>0.069353781916983492</v>
       </c>
-      <c r="M49" s="74">
+      <c r="M49" s="78">
         <v>0.031497800314205154</v>
       </c>
-      <c r="N49" s="74">
+      <c r="N49" s="78">
         <v>0.01995546658943231</v>
       </c>
-      <c r="O49" s="74">
+      <c r="O49" s="78">
         <v>0.039220760105328406</v>
       </c>
-      <c r="P49" s="74">
+      <c r="P49" s="78">
         <v>0.023495591474423302</v>
       </c>
-      <c r="Q49" s="74">
+      <c r="Q49" s="78">
         <v>0.017219852140946807</v>
       </c>
-      <c r="R49" s="74">
+      <c r="R49" s="78">
         <v>0.016428255422636522</v>
       </c>
-      <c r="S49" s="74">
+      <c r="S49" s="78">
         <v>0.015100000000000001</v>
       </c>
-      <c r="T49" s="74">
+      <c r="T49" s="78">
         <v>0.0144</v>
       </c>
-      <c r="U49" s="74">
+      <c r="U49" s="78">
         <v>0.0126</v>
       </c>
-      <c r="V49" s="75">
+      <c r="V49" s="79">
         <v>0.0123</v>
       </c>
-      <c r="W49" s="75">
+      <c r="W49" s="79">
         <v>0.015100000000000001</v>
       </c>
-      <c r="X49" s="75">
+      <c r="X49" s="79">
         <v>0.0132</v>
       </c>
-      <c r="Y49" s="75">
+      <c r="Y49" s="79">
         <v>0.0149</v>
       </c>
-      <c r="Z49" s="75">
+      <c r="Z49" s="79">
         <v>0.016400000000000001</v>
       </c>
       <c r="AA49" s="27">
@@ -12664,160 +12793,160 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
-      <c r="S50" s="74"/>
-      <c r="T50" s="74"/>
-      <c r="U50" s="74"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="75"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="75"/>
+      <c r="A50" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="79"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
     </row>
     <row r="51">
-      <c r="A51" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74">
+      <c r="A51" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78">
         <v>0.97583948125726316</v>
       </c>
-      <c r="J51" s="74">
+      <c r="J51" s="78">
         <v>0.97929999999999995</v>
       </c>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74">
+      <c r="K51" s="78"/>
+      <c r="L51" s="78">
         <v>0.96963267011579124</v>
       </c>
-      <c r="M51" s="74">
+      <c r="M51" s="78">
         <v>0.97361817927737515</v>
       </c>
-      <c r="N51" s="74">
+      <c r="N51" s="78">
         <v>0.97910429965516144</v>
       </c>
-      <c r="O51" s="74">
+      <c r="O51" s="78">
         <v>0.96369518862959569</v>
       </c>
-      <c r="P51" s="74">
+      <c r="P51" s="78">
         <v>0.83453228319480388</v>
       </c>
-      <c r="Q51" s="74">
+      <c r="Q51" s="78">
         <v>0.84614806671968323</v>
       </c>
-      <c r="R51" s="74">
+      <c r="R51" s="78">
         <v>0.96233619444652629</v>
       </c>
-      <c r="S51" s="74">
+      <c r="S51" s="78">
         <v>0.97109999999999996</v>
       </c>
-      <c r="T51" s="74">
+      <c r="T51" s="78">
         <v>0.96160000000000001</v>
       </c>
-      <c r="U51" s="74">
+      <c r="U51" s="78">
         <v>0.96140000000000003</v>
       </c>
-      <c r="V51" s="75">
+      <c r="V51" s="79">
         <v>0.96009999999999995</v>
       </c>
-      <c r="W51" s="75">
+      <c r="W51" s="79">
         <v>0.96889999999999998</v>
       </c>
-      <c r="X51" s="75">
+      <c r="X51" s="79">
         <v>0.97799999999999998</v>
       </c>
-      <c r="Y51" s="75">
+      <c r="Y51" s="79">
         <v>0.97940000000000005</v>
       </c>
-      <c r="Z51" s="75">
+      <c r="Z51" s="79">
         <v>0.96140000000000003</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74">
+      <c r="A52" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78">
         <v>0.0094599881291469162</v>
       </c>
-      <c r="J52" s="74">
+      <c r="J52" s="78">
         <v>0.0109</v>
       </c>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74">
+      <c r="K52" s="78"/>
+      <c r="L52" s="78">
         <v>0.027927267665313581</v>
       </c>
-      <c r="M52" s="74">
+      <c r="M52" s="78">
         <v>0.011750225980467963</v>
       </c>
-      <c r="N52" s="74">
+      <c r="N52" s="78">
         <v>0.01108752009008613</v>
       </c>
-      <c r="O52" s="74">
+      <c r="O52" s="78">
         <v>0.021544041567649361</v>
       </c>
-      <c r="P52" s="74">
+      <c r="P52" s="78">
         <v>0.12668702164015933</v>
       </c>
-      <c r="Q52" s="74">
+      <c r="Q52" s="78">
         <v>0.083254695641825693</v>
       </c>
-      <c r="R52" s="74">
+      <c r="R52" s="78">
         <v>0.030143493227733457</v>
       </c>
-      <c r="S52" s="74">
+      <c r="S52" s="78">
         <v>0.0252</v>
       </c>
-      <c r="T52" s="74">
+      <c r="T52" s="78">
         <v>0.032399999999999998</v>
       </c>
-      <c r="U52" s="74">
+      <c r="U52" s="78">
         <v>0.034099999999999998</v>
       </c>
-      <c r="V52" s="75">
+      <c r="V52" s="79">
         <v>0.036600000000000001</v>
       </c>
-      <c r="W52" s="75">
+      <c r="W52" s="79">
         <v>0.027400000000000001</v>
       </c>
-      <c r="X52" s="75">
+      <c r="X52" s="79">
         <v>0.018499999999999999</v>
       </c>
-      <c r="Y52" s="75">
+      <c r="Y52" s="79">
         <v>0.015699999999999999</v>
       </c>
-      <c r="Z52" s="75">
+      <c r="Z52" s="79">
         <v>0.032500000000000001</v>
       </c>
       <c r="AA52" s="27">
@@ -12830,184 +12959,184 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70"/>
-      <c r="Z53" s="70"/>
+      <c r="A53" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="74"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="74"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="74"/>
     </row>
     <row r="54">
-      <c r="A54" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="72">
+      <c r="A54" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="76">
         <v>0.99270000000000003</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="76">
         <v>0.99160000000000004</v>
       </c>
-      <c r="E54" s="74">
+      <c r="E54" s="78">
         <v>0.99339999999999995</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="78">
         <v>0.97650000000000003</v>
       </c>
-      <c r="G54" s="74">
+      <c r="G54" s="78">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H54" s="74">
+      <c r="H54" s="78">
         <v>0.97309999999999997</v>
       </c>
-      <c r="I54" s="74">
+      <c r="I54" s="78">
         <v>0.97060000000000002</v>
       </c>
-      <c r="J54" s="74">
+      <c r="J54" s="78">
         <v>0.97060000000000002</v>
       </c>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74">
+      <c r="K54" s="78"/>
+      <c r="L54" s="78">
         <v>0.96930000000000005</v>
       </c>
-      <c r="M54" s="74">
+      <c r="M54" s="78">
         <v>0.97309999999999997</v>
       </c>
-      <c r="N54" s="74">
+      <c r="N54" s="78">
         <v>0.98470000000000002</v>
       </c>
-      <c r="O54" s="74">
+      <c r="O54" s="78">
         <v>0.96230000000000004</v>
       </c>
-      <c r="P54" s="74">
+      <c r="P54" s="78">
         <v>0.97150000000000003</v>
       </c>
-      <c r="Q54" s="74">
+      <c r="Q54" s="78">
         <v>0.9788</v>
       </c>
-      <c r="R54" s="74">
+      <c r="R54" s="78">
         <v>0.98560000000000003</v>
       </c>
-      <c r="S54" s="74">
+      <c r="S54" s="78">
         <v>0.98440000000000005</v>
       </c>
-      <c r="T54" s="74">
+      <c r="T54" s="78">
         <v>0.98619999999999997</v>
       </c>
-      <c r="U54" s="74">
+      <c r="U54" s="78">
         <v>0.98809999999999998</v>
       </c>
-      <c r="V54" s="75">
+      <c r="V54" s="79">
         <v>0.98839999999999995</v>
       </c>
-      <c r="W54" s="75">
+      <c r="W54" s="79">
         <v>0.98899999999999999</v>
       </c>
-      <c r="X54" s="75">
+      <c r="X54" s="79">
         <v>0.9909</v>
       </c>
-      <c r="Y54" s="75">
+      <c r="Y54" s="79">
         <v>0.99080000000000001</v>
       </c>
-      <c r="Z54" s="75">
+      <c r="Z54" s="79">
         <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="72">
+      <c r="A55" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="76">
         <v>0.0066</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="76">
         <v>0.0080999999999999996</v>
       </c>
-      <c r="E55" s="74">
+      <c r="E55" s="78">
         <v>0.0019</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="78">
         <v>0.0023</v>
       </c>
-      <c r="G55" s="74">
+      <c r="G55" s="78">
         <v>0.0014</v>
       </c>
-      <c r="H55" s="74">
+      <c r="H55" s="78">
         <v>0.0060000000000000001</v>
       </c>
-      <c r="I55" s="74">
+      <c r="I55" s="78">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="J55" s="74">
+      <c r="J55" s="78">
         <v>0.0030000000000000001</v>
       </c>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74">
+      <c r="K55" s="78"/>
+      <c r="L55" s="78">
         <v>0.023599999999999999</v>
       </c>
-      <c r="M55" s="74">
+      <c r="M55" s="78">
         <v>0.0178</v>
       </c>
-      <c r="N55" s="74">
+      <c r="N55" s="78">
         <v>0.0050000000000000001</v>
       </c>
-      <c r="O55" s="74">
+      <c r="O55" s="78">
         <v>0.0269</v>
       </c>
-      <c r="P55" s="74">
+      <c r="P55" s="78">
         <v>0.017600000000000001</v>
       </c>
-      <c r="Q55" s="74">
+      <c r="Q55" s="78">
         <v>0.0129</v>
       </c>
-      <c r="R55" s="74">
+      <c r="R55" s="78">
         <v>0.0079000000000000008</v>
       </c>
-      <c r="S55" s="74">
+      <c r="S55" s="78">
         <v>0.0097999999999999997</v>
       </c>
-      <c r="T55" s="74">
+      <c r="T55" s="78">
         <v>0.0086</v>
       </c>
-      <c r="U55" s="74">
+      <c r="U55" s="78">
         <v>0.0071999999999999998</v>
       </c>
-      <c r="V55" s="75">
+      <c r="V55" s="79">
         <v>0.0073000000000000001</v>
       </c>
-      <c r="W55" s="75">
+      <c r="W55" s="79">
         <v>0.0068999999999999999</v>
       </c>
-      <c r="X55" s="75">
+      <c r="X55" s="79">
         <v>0.0057000000000000002</v>
       </c>
-      <c r="Y55" s="75">
+      <c r="Y55" s="79">
         <v>0.0055999999999999999</v>
       </c>
-      <c r="Z55" s="75">
+      <c r="Z55" s="79">
         <v>0.0057000000000000002</v>
       </c>
       <c r="AA55" s="27">
@@ -13020,184 +13149,184 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="69"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
+      <c r="A56" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="74"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="74"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="74"/>
     </row>
     <row r="57">
-      <c r="A57" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="72">
+      <c r="A57" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="76">
         <v>0.99490000000000001</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="76">
         <v>0.99399999999999999</v>
       </c>
-      <c r="E57" s="74">
+      <c r="E57" s="78">
         <v>0.99539999999999995</v>
       </c>
-      <c r="F57" s="74">
+      <c r="F57" s="78">
         <v>0.99519999999999997</v>
       </c>
-      <c r="G57" s="74">
+      <c r="G57" s="78">
         <v>0.99419999999999997</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="78">
         <v>0.99609999999999999</v>
       </c>
-      <c r="I57" s="74">
+      <c r="I57" s="78">
         <v>0.99629999999999996</v>
       </c>
-      <c r="J57" s="74">
+      <c r="J57" s="78">
         <v>0.996</v>
       </c>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74">
+      <c r="K57" s="78"/>
+      <c r="L57" s="78">
         <v>0.98309999999999997</v>
       </c>
-      <c r="M57" s="74">
+      <c r="M57" s="78">
         <v>0.98670000000000002</v>
       </c>
-      <c r="N57" s="74">
+      <c r="N57" s="78">
         <v>0.99560000000000004</v>
       </c>
-      <c r="O57" s="74">
+      <c r="O57" s="78">
         <v>0.98309999999999997</v>
       </c>
-      <c r="P57" s="74">
+      <c r="P57" s="78">
         <v>0.99050000000000005</v>
       </c>
-      <c r="Q57" s="74">
+      <c r="Q57" s="78">
         <v>0.99070000000000003</v>
       </c>
-      <c r="R57" s="74">
+      <c r="R57" s="78">
         <v>0.99450000000000005</v>
       </c>
-      <c r="S57" s="74">
+      <c r="S57" s="78">
         <v>0.99370000000000003</v>
       </c>
-      <c r="T57" s="74">
+      <c r="T57" s="78">
         <v>0.99409999999999998</v>
       </c>
-      <c r="U57" s="74">
+      <c r="U57" s="78">
         <v>0.99539999999999995</v>
       </c>
-      <c r="V57" s="75">
+      <c r="V57" s="79">
         <v>0.99560000000000004</v>
       </c>
-      <c r="W57" s="75">
+      <c r="W57" s="79">
         <v>0.99439999999999995</v>
       </c>
-      <c r="X57" s="75">
+      <c r="X57" s="79">
         <v>0.99470000000000003</v>
       </c>
-      <c r="Y57" s="75">
+      <c r="Y57" s="79">
         <v>0.99480000000000002</v>
       </c>
-      <c r="Z57" s="75">
+      <c r="Z57" s="79">
         <v>0.99529999999999996</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="72">
+      <c r="A58" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="76">
         <v>0.0047000000000000002</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="76">
         <v>0.0043</v>
       </c>
-      <c r="E58" s="74">
+      <c r="E58" s="78">
         <v>0.002</v>
       </c>
-      <c r="F58" s="74">
+      <c r="F58" s="78">
         <v>0.0022000000000000001</v>
       </c>
-      <c r="G58" s="74">
+      <c r="G58" s="78">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="H58" s="74">
+      <c r="H58" s="78">
         <v>0.0012999999999999999</v>
       </c>
-      <c r="I58" s="74">
+      <c r="I58" s="78">
         <v>0.0015</v>
       </c>
-      <c r="J58" s="74">
+      <c r="J58" s="78">
         <v>0.0011000000000000001</v>
       </c>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74">
+      <c r="K58" s="78"/>
+      <c r="L58" s="78">
         <v>0.014</v>
       </c>
-      <c r="M58" s="74">
+      <c r="M58" s="78">
         <v>0.0103</v>
       </c>
-      <c r="N58" s="74">
+      <c r="N58" s="78">
         <v>0.0023999999999999998</v>
       </c>
-      <c r="O58" s="74">
+      <c r="O58" s="78">
         <v>0.013599999999999999</v>
       </c>
-      <c r="P58" s="74">
+      <c r="P58" s="78">
         <v>0.0068999999999999999</v>
       </c>
-      <c r="Q58" s="74">
+      <c r="Q58" s="78">
         <v>0.0061999999999999998</v>
       </c>
-      <c r="R58" s="74">
+      <c r="R58" s="78">
         <v>0.0028</v>
       </c>
-      <c r="S58" s="74">
+      <c r="S58" s="78">
         <v>0.0041999999999999997</v>
       </c>
-      <c r="T58" s="74">
+      <c r="T58" s="78">
         <v>0.0041000000000000003</v>
       </c>
-      <c r="U58" s="74">
+      <c r="U58" s="78">
         <v>0.0028</v>
       </c>
-      <c r="V58" s="75">
+      <c r="V58" s="79">
         <v>0.0027000000000000001</v>
       </c>
-      <c r="W58" s="75">
+      <c r="W58" s="79">
         <v>0.0040000000000000001</v>
       </c>
-      <c r="X58" s="75">
+      <c r="X58" s="79">
         <v>0.0037000000000000002</v>
       </c>
-      <c r="Y58" s="75">
+      <c r="Y58" s="79">
         <v>0.0035000000000000001</v>
       </c>
-      <c r="Z58" s="75">
+      <c r="Z58" s="79">
         <v>0.0033</v>
       </c>
       <c r="AA58" s="27">
@@ -13210,402 +13339,402 @@
       </c>
     </row>
     <row r="59">
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
-      <c r="Q59" s="86"/>
-      <c r="R59" s="86"/>
-      <c r="S59" s="86"/>
-      <c r="T59" s="86"/>
-      <c r="U59" s="86"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
     </row>
     <row r="60">
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="87"/>
-      <c r="S60" s="87"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="87"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="91"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="91"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="91"/>
     </row>
     <row r="61">
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="87"/>
-      <c r="S61" s="87"/>
-      <c r="T61" s="87"/>
-      <c r="U61" s="87"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="91"/>
+      <c r="T61" s="91"/>
+      <c r="U61" s="91"/>
     </row>
     <row r="63">
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="87"/>
-      <c r="S63" s="87"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="87"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
     </row>
     <row r="64">
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="87"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="87"/>
-      <c r="P64" s="87"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="87"/>
-      <c r="S64" s="87"/>
-      <c r="T64" s="87"/>
-      <c r="U64" s="87"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
     </row>
     <row r="66">
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="87"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="87"/>
-      <c r="P66" s="87"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="87"/>
-      <c r="S66" s="87"/>
-      <c r="T66" s="87"/>
-      <c r="U66" s="87"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
     </row>
     <row r="67">
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="87"/>
-      <c r="M67" s="87"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="87"/>
-      <c r="P67" s="87"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="87"/>
-      <c r="S67" s="87"/>
-      <c r="T67" s="87"/>
-      <c r="U67" s="87"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
     </row>
     <row r="69">
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="87"/>
-      <c r="K69" s="87"/>
-      <c r="L69" s="87"/>
-      <c r="M69" s="87"/>
-      <c r="N69" s="87"/>
-      <c r="O69" s="87"/>
-      <c r="P69" s="87"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="87"/>
-      <c r="S69" s="87"/>
-      <c r="T69" s="87"/>
-      <c r="U69" s="87"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="91"/>
     </row>
     <row r="70">
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="87"/>
-      <c r="M70" s="87"/>
-      <c r="N70" s="87"/>
-      <c r="O70" s="87"/>
-      <c r="P70" s="87"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="87"/>
-      <c r="S70" s="87"/>
-      <c r="T70" s="87"/>
-      <c r="U70" s="87"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
     </row>
     <row r="72">
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="87"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="87"/>
-      <c r="N72" s="87"/>
-      <c r="O72" s="87"/>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="87"/>
-      <c r="S72" s="87"/>
-      <c r="T72" s="87"/>
-      <c r="U72" s="87"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91"/>
     </row>
     <row r="73">
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="87"/>
-      <c r="K73" s="87"/>
-      <c r="L73" s="87"/>
-      <c r="M73" s="87"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="87"/>
-      <c r="S73" s="87"/>
-      <c r="T73" s="87"/>
-      <c r="U73" s="87"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
     </row>
     <row r="75">
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="87"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="87"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="87"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="87"/>
-      <c r="S75" s="87"/>
-      <c r="T75" s="87"/>
-      <c r="U75" s="87"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="91"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="91"/>
+      <c r="P75" s="91"/>
+      <c r="Q75" s="91"/>
+      <c r="R75" s="91"/>
+      <c r="S75" s="91"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="91"/>
     </row>
     <row r="76">
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="87"/>
-      <c r="S76" s="87"/>
-      <c r="T76" s="87"/>
-      <c r="U76" s="87"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="91"/>
+      <c r="P76" s="91"/>
+      <c r="Q76" s="91"/>
+      <c r="R76" s="91"/>
+      <c r="S76" s="91"/>
+      <c r="T76" s="91"/>
+      <c r="U76" s="91"/>
     </row>
     <row r="78">
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="87"/>
-      <c r="S78" s="87"/>
-      <c r="T78" s="87"/>
-      <c r="U78" s="87"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
+      <c r="M78" s="91"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="91"/>
+      <c r="P78" s="91"/>
+      <c r="Q78" s="91"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="91"/>
+      <c r="T78" s="91"/>
+      <c r="U78" s="91"/>
     </row>
     <row r="79">
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
-      <c r="J79" s="87"/>
-      <c r="K79" s="87"/>
-      <c r="L79" s="87"/>
-      <c r="M79" s="87"/>
-      <c r="N79" s="87"/>
-      <c r="O79" s="87"/>
-      <c r="P79" s="87"/>
-      <c r="Q79" s="87"/>
-      <c r="R79" s="87"/>
-      <c r="S79" s="87"/>
-      <c r="T79" s="87"/>
-      <c r="U79" s="87"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="91"/>
+      <c r="T79" s="91"/>
+      <c r="U79" s="91"/>
     </row>
     <row r="81">
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="87"/>
-      <c r="S81" s="87"/>
-      <c r="T81" s="87"/>
-      <c r="U81" s="87"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="91"/>
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91"/>
     </row>
     <row r="82">
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="87"/>
-      <c r="K82" s="87"/>
-      <c r="L82" s="87"/>
-      <c r="M82" s="87"/>
-      <c r="N82" s="87"/>
-      <c r="O82" s="87"/>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="87"/>
-      <c r="S82" s="87"/>
-      <c r="T82" s="87"/>
-      <c r="U82" s="87"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
+      <c r="M82" s="91"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="91"/>
+      <c r="P82" s="91"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="91"/>
+      <c r="T82" s="91"/>
+      <c r="U82" s="91"/>
     </row>
     <row r="84">
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="87"/>
-      <c r="L84" s="87"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="87"/>
-      <c r="O84" s="87"/>
-      <c r="P84" s="87"/>
-      <c r="Q84" s="87"/>
-      <c r="R84" s="87"/>
-      <c r="S84" s="87"/>
-      <c r="T84" s="87"/>
-      <c r="U84" s="87"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
     </row>
     <row r="85">
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="87"/>
-      <c r="K85" s="87"/>
-      <c r="L85" s="87"/>
-      <c r="M85" s="87"/>
-      <c r="N85" s="87"/>
-      <c r="O85" s="87"/>
-      <c r="P85" s="87"/>
-      <c r="Q85" s="87"/>
-      <c r="R85" s="87"/>
-      <c r="S85" s="87"/>
-      <c r="T85" s="87"/>
-      <c r="U85" s="87"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13629,12 +13758,12 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="38.81640625"/>
-    <col min="2" max="2" style="88" width="8.7265625"/>
+    <col min="2" max="2" style="92" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -13645,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -13677,42 +13806,42 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="13.5">
       <c r="A4" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+        <v>163</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5">
       <c r="A5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="62">
+        <v>164</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="66">
         <v>5.8300000000000001</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="66">
         <v>11.01</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="66">
         <v>12.59</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="66">
         <v>14.84</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="66">
         <v>13.43</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="66">
         <v>15.1</v>
       </c>
       <c r="I5" s="12">
@@ -13727,62 +13856,62 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5">
       <c r="A6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="67">
+      <c r="B6" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="71">
         <v>23</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="71">
         <v>26.600000000000001</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="71">
         <v>31.5</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="71">
         <v>35.5</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="71">
         <v>40.200000000000003</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="94">
         <v>44.700000000000003</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="94">
         <v>49.200000000000003</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="94">
         <v>52.399999999999999</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5">
       <c r="A7" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="51">
+      <c r="D7" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="55">
         <v>87</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="55">
         <v>101</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="55">
         <v>104</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="55">
         <v>118</v>
       </c>
       <c r="I7" s="15">
@@ -13797,90 +13926,90 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5">
       <c r="A8" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="91">
+      <c r="B8" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="95">
         <v>0.10000000000000001</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="95">
         <v>0.14999999999999999</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="95">
         <v>0.19</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="95">
         <v>0.22</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="95">
         <v>0.26000000000000001</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="95">
         <v>0.34000000000000002</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="96">
         <v>0.34699999999999998</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="96">
         <v>0.34599999999999997</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="96">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5">
       <c r="A10" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+        <v>172</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5">
       <c r="A11" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="63">
+        <v>173</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="67">
         <v>1.6599999999999999</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="67">
         <v>3.6099999999999999</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="67">
         <v>7.2300000000000004</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="67">
         <v>10.390000000000001</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="67">
         <v>12.98</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="67">
         <v>15.48</v>
       </c>
       <c r="I11" s="22">
@@ -13895,27 +14024,27 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5">
       <c r="A12" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="63">
+      <c r="B12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="67">
         <v>2.0600000000000001</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="67">
         <v>3.5899999999999999</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="67">
         <v>5</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="67">
         <v>5.2699999999999996</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="67">
         <v>5.4400000000000004</v>
       </c>
       <c r="I12" s="22">
@@ -13930,13 +14059,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5">
       <c r="A13" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="63" t="s">
         <v>176</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="D13" s="12">
         <v>0.017999999999999999</v>
@@ -13965,27 +14094,27 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5">
       <c r="A14" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="63">
+        <v>178</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="67">
         <v>0.75</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="67">
         <v>4.7999999999999998</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="67">
         <v>9.0999999999999996</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="67">
         <v>17.300000000000001</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="67">
         <v>13.5</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="67">
         <v>18.100000000000001</v>
       </c>
       <c r="I14" s="12">
@@ -13999,56 +14128,56 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5">
       <c r="A16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+        <v>179</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5">
       <c r="A17" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="51">
+      <c r="B17" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="55">
         <v>12</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="55">
         <v>69</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="55">
         <v>100</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="55">
         <v>100</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="55">
         <v>99</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="55">
         <v>123</v>
       </c>
       <c r="I17" s="15">
@@ -14057,33 +14186,33 @@
       <c r="J17" s="15">
         <v>89</v>
       </c>
-      <c r="K17" s="51" t="s">
-        <v>181</v>
+      <c r="K17" s="55" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5">
       <c r="A18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="51">
+      <c r="C18" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="55">
         <v>2109</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="55">
         <v>2391</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="55">
         <v>2301</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="55">
         <v>2607</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="55">
         <v>2760</v>
       </c>
       <c r="I18" s="15">
@@ -14098,27 +14227,27 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5">
       <c r="A19" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="51">
+        <v>186</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="55">
         <v>29</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="55">
         <v>30</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="71">
         <v>47.799999999999997</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="71">
         <v>59.200000000000003</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="55">
         <v>72</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="55">
         <v>77</v>
       </c>
       <c r="I19" s="15">
@@ -14133,10 +14262,10 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5">
       <c r="A20" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>142</v>
+        <v>187</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="12">
         <v>0.78000000000000003</v>
@@ -14168,12 +14297,12 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5">
       <c r="A21" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="63">
+        <v>188</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="67">
         <v>0.38500000000000001</v>
       </c>
       <c r="D21" s="12">
@@ -14202,91 +14331,91 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5">
       <c r="A23" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
+        <v>189</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5">
       <c r="A24" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="67">
+        <v>190</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="71">
         <v>36.899999999999999</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="71">
         <v>31.800000000000001</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="71">
         <v>33.600000000000001</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="71">
         <v>44.200000000000003</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="71">
         <v>47.100000000000001</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="71">
         <v>49</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="94">
         <v>52</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="94">
         <v>46</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="94">
         <v>34</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5">
       <c r="A25" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="93">
+        <v>191</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="97">
         <v>526</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="97">
         <v>645</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="97">
         <v>562</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="97">
         <v>619</v>
       </c>
-      <c r="G25" s="93">
+      <c r="G25" s="97">
         <v>607</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="97">
         <v>826</v>
       </c>
       <c r="I25" s="15">
@@ -14301,125 +14430,125 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5">
       <c r="A26" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="60">
+      <c r="C26" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="64">
         <v>9.5</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="64">
         <v>23.5</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="64">
         <v>153.69999999999999</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="64">
         <v>107.59999999999999</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="64">
         <v>112</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="94">
         <v>106</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="94">
         <v>149.09999999999999</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="94">
         <v>526.20000000000005</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5">
       <c r="A27" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="93">
+      <c r="C27" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="97">
         <v>10</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="64">
         <v>20.800000000000001</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="64">
         <v>19.5</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="64">
         <v>23.600000000000001</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="64">
         <v>25.399999999999999</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="94">
         <v>38.5</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="94">
         <v>55</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="94">
         <v>71.400000000000006</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5">
       <c r="A29" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
+        <v>194</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5">
       <c r="A30" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="93">
+        <v>195</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="97">
         <v>455</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="97">
         <v>522</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="97">
         <v>664</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="97">
         <v>637</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G30" s="97">
         <v>598</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="97">
         <v>665</v>
       </c>
       <c r="I30" s="15">
@@ -14428,68 +14557,68 @@
       <c r="J30" s="15">
         <v>439</v>
       </c>
-      <c r="K30" s="51" t="s">
-        <v>181</v>
+      <c r="K30" s="55" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5">
       <c r="A31" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="60">
+        <v>196</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="64">
         <v>1.8</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="64">
         <v>2.6000000000000001</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="64">
         <v>3.1000000000000001</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="64">
         <v>3.6000000000000001</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="64">
         <v>3.7999999999999998</v>
       </c>
-      <c r="I31" s="90">
+      <c r="I31" s="94">
         <v>4.2000000000000002</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31" s="94">
         <v>4.5</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="94">
         <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5">
       <c r="A32" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="93">
+        <v>197</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="97">
         <v>234</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="97">
         <v>227</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="97">
         <v>269</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="97">
         <v>284</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="97">
         <v>291</v>
       </c>
-      <c r="H32" s="93">
+      <c r="H32" s="97">
         <v>416</v>
       </c>
       <c r="I32" s="15">
@@ -14498,8 +14627,8 @@
       <c r="J32" s="15">
         <v>281</v>
       </c>
-      <c r="K32" s="51" t="s">
-        <v>181</v>
+      <c r="K32" s="55" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
